--- a/data/trans_dic/Q17F_D_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Q17F_D_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,54; 19,62</t>
+          <t>11,98; 19,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,08; 21,42</t>
+          <t>12,57; 21,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,37; 19,58</t>
+          <t>10,69; 19,84</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,84; 39,08</t>
+          <t>24,5; 39,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,19; 16,23</t>
+          <t>10,15; 16,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,6; 14,19</t>
+          <t>8,45; 14,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,99; 19,4</t>
+          <t>11,94; 19,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,43; 47,38</t>
+          <t>34,77; 46,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,38; 16,56</t>
+          <t>11,66; 16,57</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>11,19; 15,73</t>
+          <t>11,0; 15,84</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,38; 17,98</t>
+          <t>12,29; 18,34</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>32,42; 42,26</t>
+          <t>32,78; 42,49</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,04; 22,56</t>
+          <t>13,01; 22,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,77; 15,79</t>
+          <t>8,77; 15,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,75; 14,81</t>
+          <t>8,97; 15,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26,93; 37,85</t>
+          <t>26,67; 36,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,26; 21,47</t>
+          <t>13,42; 21,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,53; 20,27</t>
+          <t>13,45; 20,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,84; 20,4</t>
+          <t>13,99; 20,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>32,34; 41,53</t>
+          <t>31,46; 41,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14,44; 20,89</t>
+          <t>14,47; 20,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>12,2; 17,19</t>
+          <t>12,2; 17,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,65; 17,32</t>
+          <t>12,65; 17,08</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>31,47; 38,24</t>
+          <t>31,19; 38,15</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,95; 32,48</t>
+          <t>10,37; 31,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,33; 28,67</t>
+          <t>7,74; 28,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,59; 23,8</t>
+          <t>9,05; 23,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,69; 48,75</t>
+          <t>29,88; 47,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,84; 22,36</t>
+          <t>8,44; 22,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,41; 20,5</t>
+          <t>6,94; 20,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,93; 23,15</t>
+          <t>9,39; 23,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>30,5; 43,67</t>
+          <t>30,24; 43,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11,13; 22,95</t>
+          <t>10,79; 22,42</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,24; 21,22</t>
+          <t>9,4; 20,51</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,4; 20,86</t>
+          <t>11,51; 22,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>32,63; 43,11</t>
+          <t>32,01; 43,38</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,68; 19,94</t>
+          <t>13,79; 19,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,95; 16,99</t>
+          <t>11,96; 17,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,99; 15,89</t>
+          <t>10,99; 15,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,08; 36,81</t>
+          <t>29,34; 36,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,37; 17,02</t>
+          <t>12,47; 17,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>11,38; 15,53</t>
+          <t>11,67; 15,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,16; 18,87</t>
+          <t>14,04; 18,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>34,31; 40,92</t>
+          <t>34,68; 41,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13,76; 17,49</t>
+          <t>13,7; 17,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,32; 15,73</t>
+          <t>12,34; 15,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,38; 16,75</t>
+          <t>13,29; 16,72</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>33,47; 38,52</t>
+          <t>33,38; 38,43</t>
         </is>
       </c>
     </row>
